--- a/Task4/DATA1/data_summary_1.xlsx
+++ b/Task4/DATA1/data_summary_1.xlsx
@@ -458,39 +458,39 @@
         <v>45659</v>
       </c>
       <c r="B2" t="n">
-        <v>3997.068</v>
+        <v>3987.048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45610</v>
+        <v>45541</v>
       </c>
       <c r="B3" t="n">
-        <v>3911.974</v>
+        <v>3937.608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45541</v>
+        <v>45610</v>
       </c>
       <c r="B4" t="n">
-        <v>3796.108</v>
+        <v>3911.974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45605</v>
+        <v>45572</v>
       </c>
       <c r="B5" t="n">
-        <v>3518.618</v>
+        <v>3517.018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45572</v>
+        <v>45678</v>
       </c>
       <c r="B6" t="n">
-        <v>3517.018</v>
+        <v>3509.696</v>
       </c>
     </row>
   </sheetData>
